--- a/server调用mailbox参数.xlsx
+++ b/server调用mailbox参数.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yingzequ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学课程\作业\软件设计和开发\finalPJ\own\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,16 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="99">
   <si>
     <t>client to server:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum msgtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,14 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>play</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,27 +104,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dropKeeper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dropCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Server to client</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parseMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msgtype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -160,10 +120,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>addPlayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>roundBegin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,23 +156,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合开始消息（无随机开场）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始消息（有随机开场）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>此玩家的自动打出牌+新增手牌信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>确认消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -240,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dropCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最后一张牌出后，结算完毕不发确认消息，发弃牌命令</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -260,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CardNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手牌数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CardPlaying</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牌的信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,14 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gameStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gameOver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获胜玩家编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,10 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>keeperUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所有物牌信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,6 +241,166 @@
   </si>
   <si>
     <t>0:所有物全部更新。1：所有物增加的信息。2：所有物减少的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createMsg(msgType m, string name, int playerNum, vector&lt;int&gt; relatedCards);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸牌消息（无随机开场）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸牌消息（有随机开场）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播所有玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否广播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientMB成员函数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGISTER</t>
+  </si>
+  <si>
+    <t>ACK</t>
+  </si>
+  <si>
+    <t>NACK</t>
+  </si>
+  <si>
+    <t>PLAY</t>
+  </si>
+  <si>
+    <t>DROPCARD</t>
+  </si>
+  <si>
+    <t>DROPKEEPER</t>
+  </si>
+  <si>
+    <t>MSGTYPE</t>
+  </si>
+  <si>
+    <t>ADDPLAYER</t>
+  </si>
+  <si>
+    <t>GAMESTART</t>
+  </si>
+  <si>
+    <t>DRAW</t>
+  </si>
+  <si>
+    <t>CARDNUM</t>
+  </si>
+  <si>
+    <t>CARDPLAYING</t>
+  </si>
+  <si>
+    <t>GAMEOVER</t>
+  </si>
+  <si>
+    <t>RULE</t>
+  </si>
+  <si>
+    <t>KEEPERUPDATE</t>
+  </si>
+  <si>
+    <t>ROUNDBEGIN</t>
+  </si>
+  <si>
+    <t>enum MsgType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">getMsg(MsgType&amp; m, string&amp; name, int&amp; playerNum, vector&lt;int&gt;&amp; relatedCards, int&amp; additional); </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向各玩家分别发送不同内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可不发给玩家本人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">getMsg(MsgType&amp; m,string&amp; name, int&amp; playerNum, vector&lt;Card&amp;&gt; relatedCards); </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createMsg(msgType m, string name, int playerNum, vector&lt;Card&amp;&gt; relatedCards, int additional);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +451,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -394,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -402,6 +480,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -697,433 +781,583 @@
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="31.625" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="58.25" customWidth="1"/>
+    <col min="6" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="58.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
         <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="G23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
+      <c r="F24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" t="s">
-        <v>76</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/server调用mailbox参数.xlsx
+++ b/server调用mailbox参数.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
   <si>
     <t>client to server:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int playerNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vector&lt;Card&amp;&gt; relatedCards</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,10 +47,6 @@
   </si>
   <si>
     <t>无</t>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
@@ -252,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>createMsg(msgType m, string name, int playerNum, vector&lt;int&gt; relatedCards);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>摸牌消息（无随机开场）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,10 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否广播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>clientMB成员函数：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,107 +284,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ACK</t>
+  </si>
+  <si>
+    <t>NACK</t>
+  </si>
+  <si>
+    <t>PLAY</t>
+  </si>
+  <si>
+    <t>DROPCARD</t>
+  </si>
+  <si>
+    <t>DROPKEEPER</t>
+  </si>
+  <si>
+    <t>MSGTYPE</t>
+  </si>
+  <si>
+    <t>ADDPLAYER</t>
+  </si>
+  <si>
+    <t>GAMESTART</t>
+  </si>
+  <si>
+    <t>DRAW</t>
+  </si>
+  <si>
+    <t>CARDNUM</t>
+  </si>
+  <si>
+    <t>CARDPLAYING</t>
+  </si>
+  <si>
+    <t>GAMEOVER</t>
+  </si>
+  <si>
+    <t>RULE</t>
+  </si>
+  <si>
+    <t>KEEPERUPDATE</t>
+  </si>
+  <si>
+    <t>ROUNDBEGIN</t>
+  </si>
+  <si>
+    <t>enum MsgType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>向各玩家分别发送不同内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可不发给玩家本人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>REGISTER</t>
-  </si>
-  <si>
-    <t>ACK</t>
-  </si>
-  <si>
-    <t>NACK</t>
-  </si>
-  <si>
-    <t>PLAY</t>
-  </si>
-  <si>
-    <t>DROPCARD</t>
-  </si>
-  <si>
-    <t>DROPKEEPER</t>
-  </si>
-  <si>
-    <t>MSGTYPE</t>
-  </si>
-  <si>
-    <t>ADDPLAYER</t>
-  </si>
-  <si>
-    <t>GAMESTART</t>
-  </si>
-  <si>
-    <t>DRAW</t>
-  </si>
-  <si>
-    <t>CARDNUM</t>
-  </si>
-  <si>
-    <t>CARDPLAYING</t>
-  </si>
-  <si>
-    <t>GAMEOVER</t>
-  </si>
-  <si>
-    <t>RULE</t>
-  </si>
-  <si>
-    <t>KEEPERUPDATE</t>
-  </si>
-  <si>
-    <t>ROUNDBEGIN</t>
-  </si>
-  <si>
-    <t>enum MsgType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">getMsg(MsgType&amp; m, string&amp; name, int&amp; playerNum, vector&lt;int&gt;&amp; relatedCards, int&amp; additional); </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向各玩家分别发送不同内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可不发给玩家本人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">getMsg(MsgType&amp; m,string&amp; name, int&amp; playerNum, vector&lt;Card&amp;&gt; relatedCards); </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createMsg(msgType m, string name, int playerNum, vector&lt;Card&amp;&gt; relatedCards, int additional);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">getMsg(MsgType&amp; m, string&amp; name, int&amp; playerNum, std::vector&lt;std::string&gt;&amp; relatedCards, int&amp; additional); </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">getMsg(MsgType&amp; m,string&amp; name, vector&lt;Card&amp;&gt; relatedCards); </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createMsg(MsgType m, string name, std::vector&lt;std::string&gt; relatedCards);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createMsg(MsgType m, string name, int playerNum, vector&lt;Card&amp;&gt; relatedCards, int additional);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,7 +755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -779,7 +764,7 @@
     <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
     <col min="5" max="5" width="31.625" customWidth="1"/>
     <col min="6" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="58.25" customWidth="1"/>
@@ -792,10 +777,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -803,507 +788,465 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>50</v>
-      </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="G24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" t="s">
         <v>52</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>63</v>
-      </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1312,7 +1255,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1321,7 +1264,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1330,7 +1273,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1339,7 +1282,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1348,7 +1291,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>

--- a/server调用mailbox参数.xlsx
+++ b/server调用mailbox参数.xlsx
@@ -377,15 +377,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">getMsg(MsgType&amp; m,string&amp; name, vector&lt;Card&amp;&gt; relatedCards); </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>createMsg(MsgType m, string name, std::vector&lt;std::string&gt; relatedCards);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>createMsg(MsgType m, string name, int playerNum, vector&lt;Card&amp;&gt; relatedCards, int additional);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">getMsg(int playerNum, MsgType&amp; m,string&amp; name, vector&lt;Card&amp;&gt; relatedCards); </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>

--- a/server调用mailbox参数.xlsx
+++ b/server调用mailbox参数.xlsx
@@ -385,7 +385,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">getMsg(int playerNum, MsgType&amp; m,string&amp; name, vector&lt;Card&amp;&gt; relatedCards); </t>
+    <t xml:space="preserve">getMsg(int playerNum, MsgType&amp; m,string&amp; name, vector&lt;Card&amp;&gt;&amp; relatedCards); </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
